--- a/cb_engine/train_tools/qna/train_data.xlsx
+++ b/cb_engine/train_tools/qna/train_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\Desktop\project\chatbot\cb_engine\train_tools\qna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\Desktop\project\chat-bot\cb_engine\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>개체명(NER)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,18 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_FOOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_FOOD} 주문할게요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,34 +83,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{B_FOOD} 주문 처리 감사!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.imgur.com/UluUFMp.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_DT,B_TI,B_AIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_DT,B_AIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{B_AIR} 예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_AIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.skyscanner.co.kr/</t>
-  </si>
-  <si>
-    <t>https://www.skyscanner.co.kr/</t>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 말인지 모르겠어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_LC} 숙박시설 목록입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소 및 항공권 예매사이트 안내 해드리겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.agoda.com/ko-kr/#packages</t>
+  </si>
+  <si>
+    <t>숙박</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,14 +526,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -580,11 +564,9 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -594,82 +576,55 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>